--- a/data_csv/Ressource.xlsx
+++ b/data_csv/Ressource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\data_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C1257C-8F93-4A78-83BA-79E910C77991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B621A6-D6B4-4E1B-8C3E-561737A3311E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="10320" windowWidth="17280" windowHeight="8964" xr2:uid="{DE7E7234-377B-49CF-9DF7-8AF3B95F0633}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{DE7E7234-377B-49CF-9DF7-8AF3B95F0633}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
